--- a/docs/resources/Mappings_testCohort.xlsx
+++ b/docs/resources/Mappings_testCohort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\catalogue\staging_2.1_merged\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC6235-BC89-45EA-B155-E44173A5A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448A655-847C-446C-AF67-A5653102868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableMappings" sheetId="2" r:id="rId1"/>
@@ -274,10 +274,10 @@
     <t>birth_weight,birth_length</t>
   </si>
   <si>
-    <t>gest_diabetes</t>
-  </si>
-  <si>
-    <t>mother</t>
+    <t>mother,mother,household</t>
+  </si>
+  <si>
+    <t>gest_diabetes,blood_glucose,partner_in_household</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB84E76-FA31-4A6A-9BE5-8663E9D70060}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -654,7 +654,7 @@
     <col min="3" max="3" width="10.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.2890625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.2890625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.25" style="3" bestFit="1" customWidth="1"/>
@@ -1335,10 +1335,10 @@
         <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>76</v>

--- a/docs/resources/Mappings_testCohort.xlsx
+++ b/docs/resources/Mappings_testCohort.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861421E-122C-4BE2-ADD7-C3FD95B04874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FD7B7-3E91-49CA-A461-46BAD5674BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{B3EFD73E-CA91-47FF-85F1-7718F0622768}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" activeTab="1" xr2:uid="{F86F0FFA-F849-435E-8F15-A7532F91F404}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset mappings" sheetId="2" r:id="rId1"/>
-    <sheet name="Variable mappings" sheetId="1" r:id="rId2"/>
+    <sheet name="Dataset mappings" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable mappings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,20 +37,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>LifeCycle</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>testCohort</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>target dataset</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>source dataset</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
   <si>
     <t>partial</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>weight_who_ga</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>LifeCycle_CDM</t>
-  </si>
-  <si>
     <t>gest_diabetes,blood_glucose,partner_in_household</t>
   </si>
   <si>
@@ -63,13 +96,13 @@
     <t>birth</t>
   </si>
   <si>
-    <t>testCohort</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
-    <t>adhd_raw_0</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>adhd_raw_</t>
   </si>
   <si>
     <t>outcome</t>
@@ -84,7 +117,10 @@
     <t>complete</t>
   </si>
   <si>
-    <t>height_5</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>height_</t>
   </si>
   <si>
     <t>length_5</t>
@@ -96,7 +132,7 @@
     <t>height_4 = length_4</t>
   </si>
   <si>
-    <t>height_4</t>
+    <t>4</t>
   </si>
   <si>
     <t>length_4</t>
@@ -105,7 +141,7 @@
     <t>height_3 = length_3</t>
   </si>
   <si>
-    <t>height_3</t>
+    <t>3</t>
   </si>
   <si>
     <t>length_3</t>
@@ -114,7 +150,7 @@
     <t>height_2 = length_2</t>
   </si>
   <si>
-    <t>height_2</t>
+    <t>2</t>
   </si>
   <si>
     <t>length_2</t>
@@ -123,7 +159,7 @@
     <t>height_1 = length_1</t>
   </si>
   <si>
-    <t>height_1</t>
+    <t>1</t>
   </si>
   <si>
     <t>length_1</t>
@@ -132,16 +168,13 @@
     <t>height_0 = length_0</t>
   </si>
   <si>
-    <t>height_0</t>
-  </si>
-  <si>
     <t>length_0</t>
   </si>
   <si>
     <t>weight_5 = we_5</t>
   </si>
   <si>
-    <t>weight_5</t>
+    <t>weight_</t>
   </si>
   <si>
     <t>bm_5</t>
@@ -150,43 +183,28 @@
     <t>weight_4 = we_4</t>
   </si>
   <si>
-    <t>weight_4</t>
-  </si>
-  <si>
     <t>bm_4</t>
   </si>
   <si>
     <t>weight_3 = we_3</t>
   </si>
   <si>
-    <t>weight_3</t>
-  </si>
-  <si>
     <t>bm_3</t>
   </si>
   <si>
     <t>weight_2 = we_2</t>
   </si>
   <si>
-    <t>weight_2</t>
-  </si>
-  <si>
     <t>bm_2</t>
   </si>
   <si>
     <t>weight_1 = we_1</t>
   </si>
   <si>
-    <t>weight_1</t>
-  </si>
-  <si>
     <t>bm_1</t>
   </si>
   <si>
     <t>weight_0 = we_0</t>
-  </si>
-  <si>
-    <t>weight_0</t>
   </si>
   <si>
     <t>bm_0</t>
@@ -222,15 +240,12 @@
     fam_splitup0 = 0</t>
   </si>
   <si>
-    <t>fam_splitup0</t>
+    <t>fam_splitup</t>
   </si>
   <si>
     <t>partner_in_household</t>
   </si>
   <si>
-    <t>household</t>
-  </si>
-  <si>
     <t>mother_id = m_id</t>
   </si>
   <si>
@@ -240,9 +255,6 @@
     <t>m_id</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>child_id = c_id</t>
   </si>
   <si>
@@ -255,27 +267,15 @@
     <t>comments</t>
   </si>
   <si>
-    <t>syntax</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
+    <t>repeats</t>
+  </si>
+  <si>
     <t>target variable</t>
   </si>
   <si>
-    <t>target dataset</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>source variables other datasets.name</t>
   </si>
   <si>
@@ -283,15 +283,6 @@
   </si>
   <si>
     <t>source variables</t>
-  </si>
-  <si>
-    <t>source dataset</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
 </sst>
 </file>
@@ -662,62 +653,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403B478-48E4-493E-A3ED-B8E9B7AEBC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567CEEA9-5F71-49AF-BB90-1AD5AB1FBBB8}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90E19C-96E0-4119-8FBB-05870296906E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58A07B1-53BA-40D4-9576-224AC8829486}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -734,13 +734,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.06640625" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>80</v>
@@ -752,548 +767,608 @@
         <v>78</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resources/Mappings_testCohort.xlsx
+++ b/docs/resources/Mappings_testCohort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FD7B7-3E91-49CA-A461-46BAD5674BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D43EBB-7961-4D55-888B-335AA8E4926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" activeTab="1" xr2:uid="{F86F0FFA-F849-435E-8F15-A7532F91F404}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" activeTab="1" xr2:uid="{F86F0FFA-F849-435E-8F15-A7532F91F404}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset mappings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>core</t>
   </si>
@@ -111,9 +111,6 @@
     <t>psychological</t>
   </si>
   <si>
-    <t>height_5 = length_5</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -123,52 +120,19 @@
     <t>height_</t>
   </si>
   <si>
-    <t>length_5</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>height_4 = length_4</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>length_4</t>
-  </si>
-  <si>
-    <t>height_3 = length_3</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>length_3</t>
-  </si>
-  <si>
-    <t>height_2 = length_2</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>length_2</t>
-  </si>
-  <si>
-    <t>height_1 = length_1</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>length_1</t>
-  </si>
-  <si>
-    <t>height_0 = length_0</t>
-  </si>
-  <si>
-    <t>length_0</t>
   </si>
   <si>
     <t>weight_5 = we_5</t>
@@ -283,6 +247,15 @@
   </si>
   <si>
     <t>source variables</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>height_ = length_</t>
+  </si>
+  <si>
+    <t>length_</t>
   </si>
 </sst>
 </file>
@@ -727,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58A07B1-53BA-40D4-9576-224AC8829486}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -758,13 +731,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -773,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -788,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -799,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -808,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -828,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -837,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -857,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -866,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -875,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -886,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -895,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -915,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -924,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -944,7 +917,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -953,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -962,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -973,10 +946,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -985,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -1002,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -1014,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -1031,10 +1004,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -1043,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -1060,28 +1033,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -1089,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -1101,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -1118,10 +1091,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -1130,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -1147,10 +1120,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -1159,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -1176,28 +1149,22 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
@@ -1205,10 +1172,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
@@ -1217,157 +1190,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/docs/resources/Mappings_testCohort.xlsx
+++ b/docs/resources/Mappings_testCohort.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861421E-122C-4BE2-ADD7-C3FD95B04874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D43EBB-7961-4D55-888B-335AA8E4926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{B3EFD73E-CA91-47FF-85F1-7718F0622768}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" activeTab="1" xr2:uid="{F86F0FFA-F849-435E-8F15-A7532F91F404}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset mappings" sheetId="2" r:id="rId1"/>
-    <sheet name="Variable mappings" sheetId="1" r:id="rId2"/>
+    <sheet name="Dataset mappings" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable mappings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,20 +37,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>LifeCycle</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>testCohort</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>target dataset</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>source dataset</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
   <si>
     <t>partial</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>weight_who_ga</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>LifeCycle_CDM</t>
-  </si>
-  <si>
     <t>gest_diabetes,blood_glucose,partner_in_household</t>
   </si>
   <si>
@@ -63,13 +96,13 @@
     <t>birth</t>
   </si>
   <si>
-    <t>testCohort</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
-    <t>adhd_raw_0</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>adhd_raw_</t>
   </si>
   <si>
     <t>outcome</t>
@@ -78,70 +111,34 @@
     <t>psychological</t>
   </si>
   <si>
-    <t>height_5 = length_5</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
-    <t>height_5</t>
-  </si>
-  <si>
-    <t>length_5</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>height_</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>height_4 = length_4</t>
-  </si>
-  <si>
-    <t>height_4</t>
-  </si>
-  <si>
-    <t>length_4</t>
-  </si>
-  <si>
-    <t>height_3 = length_3</t>
-  </si>
-  <si>
-    <t>height_3</t>
-  </si>
-  <si>
-    <t>length_3</t>
-  </si>
-  <si>
-    <t>height_2 = length_2</t>
-  </si>
-  <si>
-    <t>height_2</t>
-  </si>
-  <si>
-    <t>length_2</t>
-  </si>
-  <si>
-    <t>height_1 = length_1</t>
-  </si>
-  <si>
-    <t>height_1</t>
-  </si>
-  <si>
-    <t>length_1</t>
-  </si>
-  <si>
-    <t>height_0 = length_0</t>
-  </si>
-  <si>
-    <t>height_0</t>
-  </si>
-  <si>
-    <t>length_0</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>weight_5 = we_5</t>
   </si>
   <si>
-    <t>weight_5</t>
+    <t>weight_</t>
   </si>
   <si>
     <t>bm_5</t>
@@ -150,43 +147,28 @@
     <t>weight_4 = we_4</t>
   </si>
   <si>
-    <t>weight_4</t>
-  </si>
-  <si>
     <t>bm_4</t>
   </si>
   <si>
     <t>weight_3 = we_3</t>
   </si>
   <si>
-    <t>weight_3</t>
-  </si>
-  <si>
     <t>bm_3</t>
   </si>
   <si>
     <t>weight_2 = we_2</t>
   </si>
   <si>
-    <t>weight_2</t>
-  </si>
-  <si>
     <t>bm_2</t>
   </si>
   <si>
     <t>weight_1 = we_1</t>
   </si>
   <si>
-    <t>weight_1</t>
-  </si>
-  <si>
     <t>bm_1</t>
   </si>
   <si>
     <t>weight_0 = we_0</t>
-  </si>
-  <si>
-    <t>weight_0</t>
   </si>
   <si>
     <t>bm_0</t>
@@ -222,15 +204,12 @@
     fam_splitup0 = 0</t>
   </si>
   <si>
-    <t>fam_splitup0</t>
+    <t>fam_splitup</t>
   </si>
   <si>
     <t>partner_in_household</t>
   </si>
   <si>
-    <t>household</t>
-  </si>
-  <si>
     <t>mother_id = m_id</t>
   </si>
   <si>
@@ -240,9 +219,6 @@
     <t>m_id</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>child_id = c_id</t>
   </si>
   <si>
@@ -255,27 +231,15 @@
     <t>comments</t>
   </si>
   <si>
-    <t>syntax</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
+    <t>repeats</t>
+  </si>
+  <si>
     <t>target variable</t>
   </si>
   <si>
-    <t>target dataset</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>source variables other datasets.name</t>
   </si>
   <si>
@@ -285,13 +249,13 @@
     <t>source variables</t>
   </si>
   <si>
-    <t>source dataset</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>order</t>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>height_ = length_</t>
+  </si>
+  <si>
+    <t>length_</t>
   </si>
 </sst>
 </file>
@@ -662,62 +626,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403B478-48E4-493E-A3ED-B8E9B7AEBC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567CEEA9-5F71-49AF-BB90-1AD5AB1FBBB8}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -726,574 +699,504 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90E19C-96E0-4119-8FBB-05870296906E}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58A07B1-53BA-40D4-9576-224AC8829486}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.06640625" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="79.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="J16" t="s">
         <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
